--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5.34822</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.92816</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0578</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01261</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.7458</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.05447</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.43552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.41088</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.27784</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.56603</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.59754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.85384</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.674300000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.07423</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.84814</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7.88426</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.43429</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>1.38112</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.01225</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.03798</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.08467</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.09356</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10.3293</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2.97667</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.521</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11.55682</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.75748</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.438319999999999</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>14.24141</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.94479</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3.56922</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>5.03463</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>3.52715</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.40305</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.38856</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8.12468</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.41364</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.32318</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01586</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.47157</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.97855</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.42597</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.73599</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.60649</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.598839999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.97195</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.44758</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16.16151</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.28384</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.25053</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>12.01588</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.55272</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00502</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.47023</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.00407</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.07852000000000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.70089</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.52607</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6.55683</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15.60934</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.42564</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.50189</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00483</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>242.55</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23.23407</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.08758000000000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7.01733</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14.18646</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21.73499</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.30685</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>5.39738</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>9.47865</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>4.35569</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.55706</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.92922</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>12.10266</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17.05097</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.12602</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01567</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.17656</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22.27658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.78939</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.783429999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.69974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.67435</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.01014</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.80333</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24.72242</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9.83386</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.63767</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>18.50394</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7.43682</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>3.57251</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00569</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.10976</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.05392</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.19465</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.691839999999999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>22.76122</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.44618</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.16564</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>368.39</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>36.77864</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.09426</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.6296</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22.86677</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34.04444</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.15195</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.2792</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12.27839</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>5.57159</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>15.41005</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.64371</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
